--- a/p2.xlsx
+++ b/p2.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7776B306-D024-DB43-BF89-4E0F101B9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,19 +379,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +414,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +437,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,7 +460,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,7 +483,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -505,7 +506,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,7 +529,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -597,7 +598,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -620,7 +621,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -643,7 +644,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,7 +667,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -689,7 +690,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>

--- a/p2.xlsx
+++ b/p2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7776B306-D024-DB43-BF89-4E0F101B9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC43AD-BEEC-7A43-96C5-B0DD3F2CBE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>0.9</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G9">
         <v>0.2</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0.53</v>
